--- a/G2A101秋山燎/設計書/G2A101 画面遷移図.xlsx
+++ b/G2A101秋山燎/設計書/G2A101 画面遷移図.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s20207041\Desktop\G2A101秋山燎\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s20207041\Documents\HCSForm\G2A101秋山燎\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF712DA-0442-489A-A036-C9BE42EF661A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D47745F-3CD4-49FA-9479-34126BB791F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>作成者</t>
   </si>
@@ -87,38 +87,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>登録×</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>登録〇</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>変更×</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>変更〇</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メインメニュークラス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>HCSスポーツクラブ会員登録システム</t>
     <rPh sb="10" eb="14">
       <t>カイイントウロク</t>
@@ -143,20 +111,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>カガリビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>削除×</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>削除〇</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -243,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -383,13 +337,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -436,9 +470,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -479,6 +510,36 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -557,6 +618,7 @@
       <rgbColor rgb="00424242"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFFFE699"/>
       <color rgb="FFFF99FF"/>
       <color rgb="FFCC66FF"/>
     </mruColors>
@@ -576,13 +638,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
+      <xdr:col>103</xdr:col>
       <xdr:colOff>22726</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>16125</xdr:rowOff>
@@ -661,13 +723,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
+      <xdr:col>103</xdr:col>
       <xdr:colOff>22726</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>101850</xdr:rowOff>
@@ -742,13 +804,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>59</xdr:col>
+      <xdr:col>104</xdr:col>
       <xdr:colOff>124705</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>63743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>65</xdr:col>
+      <xdr:col>110</xdr:col>
       <xdr:colOff>76945</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>6743</xdr:rowOff>
@@ -825,13 +887,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>59</xdr:col>
+      <xdr:col>104</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>66</xdr:col>
+      <xdr:col>111</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>168525</xdr:rowOff>
@@ -906,13 +968,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
+      <xdr:col>105</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>65</xdr:col>
+      <xdr:col>110</xdr:col>
       <xdr:colOff>146551</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>178050</xdr:rowOff>
@@ -987,13 +1049,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>93786</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>108438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
+      <xdr:col>103</xdr:col>
       <xdr:colOff>30786</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>76938</xdr:rowOff>
@@ -1088,16 +1150,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>37869</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>29592</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>97263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>134232</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>144499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>142510</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>111369</xdr:rowOff>
+      <xdr:rowOff>64134</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1112,8 +1174,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="887792" y="9898099"/>
-          <a:ext cx="954564" cy="353732"/>
+          <a:off x="700152" y="9332703"/>
+          <a:ext cx="942840" cy="347871"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1148,7 +1210,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -1165,7 +1227,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>登録</a:t>
+            <a:t>会員登録</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
             <a:solidFill>
@@ -1191,16 +1253,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>98072</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>30665</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>10143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>130973</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>168404</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>30740</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>134942</xdr:rowOff>
+      <xdr:rowOff>170112</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1215,8 +1277,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3431822" y="9598154"/>
-          <a:ext cx="932793" cy="347538"/>
+          <a:off x="6233345" y="9245583"/>
+          <a:ext cx="938508" cy="350469"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1294,13 +1356,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>131298</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>65953</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>6626</xdr:rowOff>
@@ -1380,16 +1442,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>31525</xdr:colOff>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>87229</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>105686</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>129844</xdr:colOff>
+      <xdr:rowOff>3998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>17908</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>102703</xdr:rowOff>
+      <xdr:rowOff>1015</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1404,8 +1466,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11295873" y="9421964"/>
-          <a:ext cx="926580" cy="381330"/>
+          <a:off x="13833709" y="9239438"/>
+          <a:ext cx="936519" cy="378017"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1440,7 +1502,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -1466,16 +1528,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>99646</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>99645</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>181707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>103316</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>29307</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1493,8 +1555,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4519246" y="3165230"/>
-          <a:ext cx="3670" cy="814754"/>
+          <a:off x="4528210" y="3095236"/>
+          <a:ext cx="3671" cy="571329"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1522,13 +1584,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>89708</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>94785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>43936</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>37785</xdr:rowOff>
@@ -1579,7 +1641,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -1605,13 +1667,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>98628</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>160541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>51820</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>103541</xdr:rowOff>
@@ -1662,7 +1724,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -1688,13 +1750,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>66822</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>128954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>73274</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>94785</xdr:rowOff>
@@ -1742,13 +1804,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>73274</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>103541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>75224</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>16119</xdr:rowOff>
@@ -1796,13 +1858,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>104774</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>16119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>41774</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>128954</xdr:rowOff>
@@ -1868,7 +1930,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>終了しますか？</a:t>
+            <a:t>終了画面を表示</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1877,13 +1939,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>144746</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>159024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>84259</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>110130</xdr:rowOff>
@@ -1937,7 +1999,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -1963,13 +2025,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>84259</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>132041</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>98628</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>134577</xdr:rowOff>
@@ -2019,16 +2081,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>99646</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>99645</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>66285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>89708</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>29307</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2046,8 +2108,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4519246" y="3436670"/>
-          <a:ext cx="1349939" cy="543314"/>
+          <a:off x="4528210" y="3356332"/>
+          <a:ext cx="1352698" cy="310233"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2078,16 +2140,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>64476</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>111167</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>128954</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>126932</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>56856</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>126407</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>121334</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2102,8 +2164,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3124199" y="4448705"/>
-          <a:ext cx="1764324" cy="402627"/>
+          <a:off x="4918416" y="5361347"/>
+          <a:ext cx="1740878" cy="396765"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2164,13 +2226,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>158868</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>165737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>27489</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>108738</xdr:rowOff>
@@ -2221,7 +2283,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -2247,14 +2309,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>93179</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>181706</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>99646</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>99645</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>165737</xdr:rowOff>
     </xdr:to>
@@ -2274,8 +2336,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4002825" y="3358660"/>
-          <a:ext cx="6467" cy="370892"/>
+          <a:off x="4521744" y="4580965"/>
+          <a:ext cx="6466" cy="192631"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2305,16 +2367,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>93179</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>89095</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>108738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>96715</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>111167</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>93179</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>126407</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2331,9 +2393,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4002825" y="4059415"/>
-          <a:ext cx="3536" cy="389290"/>
+        <a:xfrm flipH="1">
+          <a:off x="5788855" y="5153178"/>
+          <a:ext cx="4084" cy="208169"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2359,13 +2421,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>9431</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>82063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>14686</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>84691</xdr:rowOff>
@@ -2414,7 +2476,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -2440,16 +2502,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>64476</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>29307</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>134815</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>181706</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2464,8 +2526,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2923290" y="2772507"/>
-          <a:ext cx="2088325" cy="530771"/>
+          <a:off x="3471064" y="3666565"/>
+          <a:ext cx="2114292" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2527,19 +2589,59 @@
             <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・会員情報管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・テーブル作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>134816</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>164122</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>71816</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>181707</xdr:rowOff>
@@ -2593,7 +2695,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -2619,16 +2721,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>7468</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>15704</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>13330</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2643,8 +2745,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3174531" y="5063954"/>
-          <a:ext cx="1506049" cy="1241596"/>
+          <a:off x="5036668" y="6065520"/>
+          <a:ext cx="1514622" cy="1470660"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2812,16 +2914,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>93743</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>126932</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>96715</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>15704</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>89095</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>94219</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2838,9 +2940,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3927556" y="4794182"/>
-          <a:ext cx="2972" cy="269772"/>
+        <a:xfrm>
+          <a:off x="5788855" y="5758112"/>
+          <a:ext cx="5124" cy="307408"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2868,13 +2970,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>63</xdr:col>
+      <xdr:col>108</xdr:col>
       <xdr:colOff>154263</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>187777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
+      <xdr:col>108</xdr:col>
       <xdr:colOff>156047</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>185738</xdr:rowOff>
@@ -2919,13 +3021,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
+      <xdr:col>106</xdr:col>
       <xdr:colOff>163788</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
+      <xdr:col>107</xdr:col>
       <xdr:colOff>2198</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>18015</xdr:rowOff>
@@ -2972,13 +3074,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
+      <xdr:col>101</xdr:col>
       <xdr:colOff>162908</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>183931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
+      <xdr:col>102</xdr:col>
       <xdr:colOff>161927</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>185741</xdr:rowOff>
@@ -3023,13 +3125,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>55</xdr:col>
+      <xdr:col>100</xdr:col>
       <xdr:colOff>10511</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>183931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
+      <xdr:col>100</xdr:col>
       <xdr:colOff>162911</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>5254</xdr:rowOff>
@@ -3076,14 +3178,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>93225</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>94885</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>94219</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>95879</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>82063</xdr:rowOff>
     </xdr:to>
@@ -3103,8 +3205,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3903225" y="6356074"/>
-          <a:ext cx="1660" cy="352076"/>
+          <a:off x="5793979" y="7536180"/>
+          <a:ext cx="1660" cy="257323"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3130,13 +3232,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>59</xdr:col>
+      <xdr:col>104</xdr:col>
       <xdr:colOff>156127</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>6626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
+      <xdr:col>104</xdr:col>
       <xdr:colOff>156127</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>6626</xdr:rowOff>
@@ -3184,13 +3286,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>53</xdr:col>
+      <xdr:col>98</xdr:col>
       <xdr:colOff>4766</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>4765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>3</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>19053</xdr:rowOff>
@@ -3239,15 +3341,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>167139</xdr:colOff>
+      <xdr:colOff>2034</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>180093</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:rowOff>180092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>9432</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>165158</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3265,8 +3367,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="1357031" y="8192816"/>
-          <a:ext cx="1882109" cy="758788"/>
+          <a:off x="1191926" y="8192815"/>
+          <a:ext cx="3407091" cy="667071"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3294,16 +3396,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>46893</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>124921</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>165158</xdr:rowOff>
+      <xdr:rowOff>73441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>117398</xdr:colOff>
+      <xdr:colOff>49128</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>102984</xdr:rowOff>
+      <xdr:rowOff>11267</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3318,8 +3420,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="726831" y="8951604"/>
-          <a:ext cx="1260398" cy="324688"/>
+          <a:off x="464890" y="8859887"/>
+          <a:ext cx="1454069" cy="324688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3351,7 +3453,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -3368,7 +3470,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>「登録」を押す</a:t>
+            <a:t>「会員登録」を押す</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3377,16 +3479,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>166904</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>11267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>167138</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>102984</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>5197</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>144499</xdr:rowOff>
+      <xdr:colOff>2033</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>97263</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3403,9 +3505,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1357030" y="9276292"/>
-          <a:ext cx="8044" cy="621807"/>
+        <a:xfrm flipH="1">
+          <a:off x="1186812" y="9184575"/>
+          <a:ext cx="5113" cy="279426"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3431,16 +3533,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152402</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>146539</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>31131</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>123092</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>89991</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>60340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>94229</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>137918</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3455,8 +3557,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="832340" y="10673862"/>
-          <a:ext cx="1068622" cy="750276"/>
+          <a:off x="599945" y="10200802"/>
+          <a:ext cx="1194130" cy="271008"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3486,7 +3588,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -3503,7 +3605,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>氏名、住所、電話番号の入力ボックスを出す</a:t>
+            <a:t>会員登録画面を出す</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3512,70 +3614,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>5197</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>111369</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>6774</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>146539</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="直線コネクタ 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3701FB7E-DED4-4014-9E1B-1685CEC02E19}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="2"/>
-          <a:endCxn id="67" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1365074" y="10251831"/>
-          <a:ext cx="1577" cy="422031"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>146538</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>164467</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>122744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53443</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>35166</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>35170</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>158260</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3590,8 +3638,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="656492" y="11723074"/>
-          <a:ext cx="1418493" cy="896817"/>
+          <a:off x="499747" y="10691684"/>
+          <a:ext cx="1397736" cy="928816"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3626,7 +3674,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -3643,7 +3691,47 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>全部入力したら「登録」ボタンを押す。</a:t>
+            <a:t>・名　前</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・住　所</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　・電話番号</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3652,16 +3740,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>5862</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>123092</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>6774</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>35166</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8290</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>137918</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25135</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>122744</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3678,9 +3766,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1365739" y="11424138"/>
-          <a:ext cx="912" cy="298936"/>
+        <a:xfrm>
+          <a:off x="1181770" y="10325858"/>
+          <a:ext cx="16845" cy="365826"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3706,74 +3794,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>35170</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>180093</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9431</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>96714</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="コネクタ: カギ線 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554E4E6A-FDB4-4E7D-9C1E-8FC6B1252CC3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="72" idx="3"/>
-          <a:endCxn id="90" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2074985" y="8192816"/>
-          <a:ext cx="1164154" cy="3978667"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>105509</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>112110</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>164895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>49978</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>82062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>41031</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>19889</xdr:rowOff>
+      <xdr:rowOff>102721</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3788,8 +3818,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2995247" y="9061939"/>
-          <a:ext cx="1465384" cy="324688"/>
+          <a:off x="6007584" y="8723358"/>
+          <a:ext cx="1453847" cy="322837"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3821,7 +3851,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -3847,16 +3877,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>154599</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>133718</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>154599</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>16486</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>86606</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28796</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>86606</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>102065</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3871,8 +3901,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3321662" y="10325468"/>
-          <a:ext cx="1166812" cy="263768"/>
+          <a:off x="6121646" y="9835736"/>
+          <a:ext cx="1173480" cy="263769"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3902,7 +3932,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -3928,23 +3958,131 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>6228</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>20149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>155331</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>176219</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>164639</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>170112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>2786</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28796</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="直線コネクタ 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC9034B-F296-4126-98D0-1AE2CBA34394}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="88" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6702599" y="9596052"/>
+          <a:ext cx="5787" cy="239684"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>2386</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>102065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>3826</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>65557</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="直線コネクタ 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C40CAE-3AAB-4891-9EDF-172E7B6222B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="88" idx="2"/>
+          <a:endCxn id="228" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6740070" y="10200570"/>
+          <a:ext cx="1440" cy="348503"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>133936</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>130347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>59201</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>171377</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="フローチャート: 判断 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75468DDC-C04F-4A7B-A7A4-3D04213A6CFF}"/>
+        <xdr:cNvPr id="139" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E818A91-4744-45F8-97C5-AC15B220719F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3952,206 +4090,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2839916" y="10973899"/>
-          <a:ext cx="2149353" cy="537070"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>会員番号を入力</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>155331</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>78581</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>98184</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="コネクタ: カギ線 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3216FF7-ACDC-475F-B86C-13FDF701CF47}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="89" idx="3"/>
-          <a:endCxn id="106" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4989269" y="10525126"/>
-          <a:ext cx="590000" cy="717308"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>156615</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>82062</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="コネクタ: カギ線 95">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B26E49C-0DF5-40B9-B1B5-D38C704C039A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="87" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3657053" y="8572500"/>
-          <a:ext cx="772073" cy="367812"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="角丸四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DA7AE0F-A3D7-4B34-9874-8E2327D864FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4695825" y="9629775"/>
-          <a:ext cx="1766887" cy="895351"/>
+          <a:off x="5833696" y="12032787"/>
+          <a:ext cx="1769305" cy="612530"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6">
+          <a:schemeClr val="tx2">
             <a:lumMod val="40000"/>
             <a:lumOff val="60000"/>
           </a:schemeClr>
@@ -4180,7 +4126,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -4197,250 +4143,18 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>「登録されていない」みたいな文章→サブメニューに戻る</a:t>
+            <a:t>会員</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>95403</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>84691</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>78581</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="110" name="コネクタ: カギ線 109">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C0FE92-EAE5-441B-8D26-B2835D6B01EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="106" idx="0"/>
-          <a:endCxn id="90" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="4462113" y="8537166"/>
-          <a:ext cx="1278849" cy="1173070"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>64406</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>134942</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>71255</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>133718</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="125" name="直線コネクタ 124">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC9034B-F296-4126-98D0-1AE2CBA34394}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="13" idx="2"/>
-          <a:endCxn id="88" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3898219" y="9945692"/>
-          <a:ext cx="6849" cy="379776"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>71255</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>16486</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>80780</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>20149</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="129" name="直線コネクタ 128">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C40CAE-3AAB-4891-9EDF-172E7B6222B5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="88" idx="2"/>
-          <a:endCxn id="89" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3905068" y="10589236"/>
-          <a:ext cx="9525" cy="384663"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="角丸四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E818A91-4744-45F8-97C5-AC15B220719F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3224213" y="11844338"/>
-          <a:ext cx="1371599" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cmpd="thinThick">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:solidFill>
@@ -4449,7 +4163,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>会員番号をもとに会員情報を表示</a:t>
+            <a:t>をもとに会員情報を検索する。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4458,16 +4172,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>176219</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>80780</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>3826</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>41302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>12348</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>130347</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4479,14 +4193,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="89" idx="2"/>
+          <a:stCxn id="228" idx="2"/>
           <a:endCxn id="139" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3910013" y="11510969"/>
-          <a:ext cx="4580" cy="333369"/>
+        <a:xfrm>
+          <a:off x="6741510" y="11679849"/>
+          <a:ext cx="8522" cy="474056"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4512,126 +4226,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>78581</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>50923</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="156" name="コネクタ: カギ線 155">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E50D149C-6431-41B3-9C7B-EC3D2DDD57EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="106" idx="0"/>
-          <a:endCxn id="139" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1" flipV="1">
-          <a:off x="3908455" y="10539504"/>
-          <a:ext cx="2555998" cy="1003239"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -8944"/>
-            <a:gd name="adj2" fmla="val -102045"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>158261</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>19889</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>64405</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>168404</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="161" name="コネクタ: カギ線 160">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5308CD83-2D51-4CE8-914D-D89B320FFEB8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="87" idx="2"/>
-          <a:endCxn id="13" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3680022" y="9434543"/>
-          <a:ext cx="341946" cy="246113"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>164123</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>169985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>64644</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>107811</xdr:rowOff>
@@ -4682,7 +4283,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -4708,13 +4309,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>46892</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>134814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>42852</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4768,7 +4369,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -4794,13 +4395,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>105507</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>107811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>114383</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>169985</xdr:rowOff>
@@ -4851,13 +4452,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>114383</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>129864</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>169985</xdr:rowOff>
@@ -4909,13 +4510,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>129863</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>130036</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>105507</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:rowOff>80684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>64475</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>134815</xdr:rowOff>
@@ -4936,8 +4537,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2391962" y="4367301"/>
-          <a:ext cx="1189892" cy="954519"/>
+          <a:off x="2401014" y="4237400"/>
+          <a:ext cx="1183684" cy="956415"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4965,16 +4566,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>140676</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>102576</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>87923</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>128954</xdr:colOff>
+      <xdr:rowOff>72683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>90854</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>103689</xdr:rowOff>
+      <xdr:rowOff>88449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4989,17 +4590,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6430107" y="4038600"/>
-          <a:ext cx="1348155" cy="402627"/>
+          <a:off x="7646376" y="3974123"/>
+          <a:ext cx="1329398" cy="396766"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
+          <a:srgbClr val="FFE699"/>
         </a:solidFill>
         <a:ln w="12700" cmpd="thinThick">
           <a:solidFill>
@@ -5051,16 +4649,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>134815</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>95806</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>140676</xdr:colOff>
+      <xdr:rowOff>80566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>102576</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>105506</xdr:rowOff>
+      <xdr:rowOff>80683</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5078,8 +4676,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5574323" y="4239914"/>
-          <a:ext cx="855784" cy="9700"/>
+          <a:off x="6840415" y="4172506"/>
+          <a:ext cx="805961" cy="117"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5105,16 +4703,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>41774</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>169252</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>134816</xdr:colOff>
+      <xdr:rowOff>167787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>96715</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>87923</xdr:rowOff>
+      <xdr:rowOff>72683</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5132,8 +4730,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="6336329" y="3270744"/>
-          <a:ext cx="1272686" cy="263026"/>
+          <a:off x="7580587" y="3243634"/>
+          <a:ext cx="1238396" cy="222581"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5161,16 +4759,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>63062</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>87925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>52922</xdr:colOff>
+      <xdr:rowOff>98436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>120868</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>25751</xdr:rowOff>
+      <xdr:rowOff>36262</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5185,8 +4783,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7121770" y="8680940"/>
-          <a:ext cx="1260398" cy="324688"/>
+          <a:off x="6789683" y="8517222"/>
+          <a:ext cx="1739461" cy="316199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5218,7 +4816,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -5235,7 +4833,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>「変更」を押す</a:t>
+            <a:t>「会員情報変更」を押す</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5244,16 +4842,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>45618</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>49694</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>111792</xdr:colOff>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>179676</xdr:rowOff>
+      <xdr:rowOff>16563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>111791</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>146546</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5268,8 +4866,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11144314" y="8597346"/>
-          <a:ext cx="1225739" cy="322139"/>
+          <a:off x="13563600" y="8680503"/>
+          <a:ext cx="1468151" cy="320483"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5301,7 +4899,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -5318,7 +4916,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>「削除」を押す</a:t>
+            <a:t>「会員削除」を押す</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5327,14 +4925,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>91966</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>36262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>98626</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>25751</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>102661</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22861</xdr:rowOff>
     </xdr:to>
@@ -5353,9 +4951,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7747934" y="9005628"/>
-          <a:ext cx="4035" cy="383971"/>
+        <a:xfrm>
+          <a:off x="7659414" y="8833421"/>
+          <a:ext cx="6660" cy="364971"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5381,16 +4979,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>17584</xdr:colOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>86164</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>50334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>146537</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>17584</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>29306</xdr:rowOff>
+      <xdr:rowOff>123603</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5405,8 +5003,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7156938" y="10286999"/>
-          <a:ext cx="1189892" cy="269630"/>
+          <a:off x="6920352" y="9861084"/>
+          <a:ext cx="1354016" cy="263769"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5436,7 +5034,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -5453,7 +5051,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>会員変更画面を出す</a:t>
+            <a:t>会員情報変更画面を出す</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5462,151 +5060,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>87167</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>29306</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>100410</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>55556</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="228" name="直線コネクタ 227">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4AC679B-65EB-4692-95B7-1ECC816E1618}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="223" idx="2"/>
-          <a:endCxn id="231" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7541515" y="10498523"/>
-          <a:ext cx="13243" cy="410563"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>66261</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>55556</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>108072</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>18196</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="231" name="フローチャート: 判断 230">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33BEBAB3-3918-4AE1-ACF5-24EEDC9E3532}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6692348" y="10909086"/>
-          <a:ext cx="1698333" cy="539110"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>変更の有無</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>106780</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>111367</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>65750</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>23444</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>115814</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>163919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5621,8 +5084,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6732867" y="11733524"/>
-          <a:ext cx="1615492" cy="872859"/>
+          <a:off x="8162534" y="12066359"/>
+          <a:ext cx="1697746" cy="659041"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5657,7 +5120,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -5674,7 +5137,27 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>会員番号をもとに会員情報を変更する画面を表示</a:t>
+            <a:t>変更したい会員</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>の、それぞれの情報を変更。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5683,16 +5166,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>146538</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>5861</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>128954</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>35859</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>122865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>33629</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5707,8 +5190,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9155723" y="11687908"/>
-          <a:ext cx="1729153" cy="1096108"/>
+          <a:off x="9403977" y="10755006"/>
+          <a:ext cx="1019746" cy="361229"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5743,7 +5226,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -5760,47 +5243,7 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>会員情報を変更、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>「</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>OK</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>」みたいなボタンを押すとサブメニューに戻る</a:t>
+            <a:t>・戻る</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5809,123 +5252,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>65750</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>160555</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>146538</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>163484</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="242" name="直線コネクタ 241">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D673D7D-BDAD-4961-A089-2142B1B1B909}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="237" idx="3"/>
-          <a:endCxn id="241" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8348359" y="12167025"/>
-          <a:ext cx="577744" cy="2929"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>161192</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>187569</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>5862</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="247" name="直線コネクタ 246">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62CF9900-2BE7-43DA-ADCA-332573D68F87}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="241" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10020300" y="8200292"/>
-          <a:ext cx="14654" cy="3487616"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>98626</xdr:colOff>
+      <xdr:colOff>96422</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>6626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>102576</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>146537</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>98625</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>50334</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5942,9 +5278,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7747934" y="9760226"/>
-          <a:ext cx="3950" cy="526773"/>
+        <a:xfrm flipH="1">
+          <a:off x="7597360" y="9626876"/>
+          <a:ext cx="2203" cy="234208"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5970,69 +5306,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>108072</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>125896</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>158261</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>132954</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="259" name="直線コネクタ 258">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F6913E-4767-455D-B89E-2227B2B27116}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="231" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8390681" y="11171583"/>
-          <a:ext cx="1375406" cy="7058"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>163698</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>179676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>165677</xdr:colOff>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>48276</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>146546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>52569</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>105686</xdr:rowOff>
+      <xdr:rowOff>3998</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6050,8 +5333,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12062621" y="8966122"/>
-          <a:ext cx="1979" cy="506302"/>
+          <a:off x="14297676" y="9000986"/>
+          <a:ext cx="4293" cy="238452"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6077,16 +5360,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>83082</xdr:colOff>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>150669</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>81268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>150669</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>33640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>83082</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>109840</xdr:rowOff>
+      <xdr:rowOff>154498</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6101,8 +5384,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11472051" y="10174102"/>
-          <a:ext cx="1189893" cy="269630"/>
+          <a:off x="15117400" y="9824358"/>
+          <a:ext cx="1177159" cy="262416"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6132,7 +5415,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -6158,23 +5441,244 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>23704</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>127424</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>148326</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>38227</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>88231</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>91965</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>98436</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="280" name="直線矢印コネクタ 279">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CE283F-3EF8-4E75-B543-4461604D607E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="211" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7668126" y="8161421"/>
+          <a:ext cx="3734" cy="495478"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>52569</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>66587</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>81268</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="295" name="直線コネクタ 294">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE849B79-4275-478F-B1B5-9023B47546BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="265" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15691962" y="9554918"/>
+          <a:ext cx="14018" cy="269440"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>96422</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>123603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>100721</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>93179</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="309" name="直線矢印コネクタ 308">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E723B61-E4AD-43A2-A49A-17C248BFE506}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="223" idx="2"/>
+          <a:endCxn id="152" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7745730" y="10264065"/>
+          <a:ext cx="4299" cy="356437"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>66587</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>154498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>79531</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>157089</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="312" name="直線矢印コネクタ 311">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F029D53A-BAE1-40E2-BBDF-76D0A5BFB9CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="265" idx="2"/>
+          <a:endCxn id="191" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15705980" y="10086774"/>
+          <a:ext cx="12944" cy="1137708"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>149396</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>27601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="269" name="角丸四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B9968A-BB1F-4658-9E01-6313E31514EC}"/>
+        <xdr:cNvPr id="316" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE420C67-8B06-41B7-B2BF-1D255C8C41FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6182,13 +5686,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11242689" y="11621901"/>
-          <a:ext cx="1654483" cy="877957"/>
+          <a:off x="14734076" y="13263541"/>
+          <a:ext cx="1900384" cy="618779"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln w="12700" cmpd="thinThick">
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
@@ -6213,7 +5722,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -6230,301 +5739,27 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>会員番号をもとに会員情報を削除する画面を表示</a:t>
+            <a:t>入力した会員</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>92765</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>172278</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>102662</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>87925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="280" name="直線矢印コネクタ 279">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CE283F-3EF8-4E75-B543-4461604D607E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="211" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7547113" y="8143461"/>
-          <a:ext cx="9897" cy="492116"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>14686</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>180093</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>163698</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>49694</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="288" name="コネクタ: カギ線 287">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B640689-C65E-41CC-8346-475E93564A3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="90" idx="3"/>
-          <a:endCxn id="212" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5794163" y="8192816"/>
-          <a:ext cx="6268458" cy="449893"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>146539</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>41031</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>18365</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>3671</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="292" name="フローチャート: 判断 291">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A56CF9-9BDC-48A2-9FCD-B798FF9F2F7E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11195539" y="10761785"/>
-          <a:ext cx="1741657" cy="542932"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>削除の有無</a:t>
+            <a:t>ID</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>117231</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>52754</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>79</xdr:col>
-      <xdr:colOff>58615</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>15394</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="293" name="フローチャート: 判断 292">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C52348C-FDFE-42A4-8ABD-4F606AE4A9E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10656277" y="13288108"/>
-          <a:ext cx="2831123" cy="542932"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>削除の有無（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>回目）</a:t>
+            <a:t>の会員情報を削除する。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6533,197 +5768,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>165677</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>102703</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>168075</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>33640</xdr:rowOff>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>79531</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>33997</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>93748</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>27601</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="295" name="直線コネクタ 294">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE849B79-4275-478F-B1B5-9023B47546BC}"/>
+        <xdr:cNvPr id="325" name="直線矢印コネクタ 324">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8E8897-BAE2-4BFE-9A01-F1D411E6AB47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="17" idx="2"/>
-          <a:endCxn id="265" idx="0"/>
+          <a:stCxn id="191" idx="2"/>
+          <a:endCxn id="316" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12064600" y="9856303"/>
-          <a:ext cx="2398" cy="317799"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>167445</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>109840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>168075</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>41031</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="298" name="直線コネクタ 297">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE4C1F6D-1F23-45B5-BC9F-6B2BBB365DC9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="265" idx="2"/>
-          <a:endCxn id="292" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="12066368" y="10443732"/>
-          <a:ext cx="630" cy="318053"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>1023</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>38227</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>2931</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>140676</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="304" name="直線コネクタ 303">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5AF88DD-43CD-4AEE-AF76-F83CD4E01BA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="269" idx="2"/>
-          <a:endCxn id="108" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12069931" y="12499858"/>
-          <a:ext cx="1908" cy="295880"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>86265</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>18196</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>87167</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>111367</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="309" name="直線矢印コネクタ 308">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E723B61-E4AD-43A2-A49A-17C248BFE506}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="231" idx="2"/>
-          <a:endCxn id="237" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7735573" y="11512673"/>
-          <a:ext cx="902" cy="286602"/>
+          <a:off x="15670051" y="11745937"/>
+          <a:ext cx="14217" cy="1517604"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6751,79 +5824,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>79646</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>172743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>70</xdr:col>
-      <xdr:colOff>167445</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>3671</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>1023</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>127424</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="312" name="直線矢印コネクタ 311">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F029D53A-BAE1-40E2-BBDF-76D0A5BFB9CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="292" idx="2"/>
-          <a:endCxn id="269" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12066368" y="11304717"/>
-          <a:ext cx="3563" cy="317184"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>79</xdr:col>
-      <xdr:colOff>70338</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>140678</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>88</xdr:col>
-      <xdr:colOff>112898</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>105509</xdr:rowOff>
+      <xdr:colOff>122205</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142746</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="315" name="角丸四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA89F88-576D-4C47-A745-F0A31738EE5E}"/>
+        <xdr:cNvPr id="109" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA61B28C-AAA6-407E-9124-22D08937BEDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6831,8 +5848,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13499123" y="10861432"/>
-          <a:ext cx="1572421" cy="351692"/>
+          <a:off x="9107105" y="9110555"/>
+          <a:ext cx="1575524" cy="346520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6867,7 +5884,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -6893,23 +5910,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>64477</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>193429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>107037</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>5861</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142436</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>141262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>75970</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>106093</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="316" name="角丸四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE420C67-8B06-41B7-B2BF-1D255C8C41FE}"/>
+        <xdr:cNvPr id="113" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EAFC3F5-3215-42D2-B5E6-3C2AB18FA28D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6917,752 +5934,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11283462" y="14202506"/>
-          <a:ext cx="1572421" cy="392724"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cmpd="thinThick">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>会員情報を削除</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>18365</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>119066</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>79</xdr:col>
-      <xdr:colOff>70338</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>123093</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="317" name="直線コネクタ 316">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55E27542-22A0-4D2A-971B-81C869F1CF8B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="315" idx="1"/>
-          <a:endCxn id="292" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="12937196" y="11033251"/>
-          <a:ext cx="561927" cy="4027"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>107037</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>105510</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>84</xdr:col>
-      <xdr:colOff>6626</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>2931</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="321" name="コネクタ: カギ線 320">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91F3161B-66CC-4E49-8071-AC274EF8A147}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="315" idx="2"/>
-          <a:endCxn id="316" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="11977737" y="12091271"/>
-          <a:ext cx="3185744" cy="1429451"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>765</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>15394</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>2931</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>193429</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="325" name="直線矢印コネクタ 324">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8E8897-BAE2-4BFE-9A01-F1D411E6AB47}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="293" idx="2"/>
-          <a:endCxn id="316" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="12069673" y="13831040"/>
-          <a:ext cx="2166" cy="371466"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>79</xdr:col>
-      <xdr:colOff>58615</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>130789</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>84</xdr:col>
-      <xdr:colOff>5861</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>146539</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="330" name="直線コネクタ 329">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC5DA4CF-B61E-446D-8C4E-E68E2D062171}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="293" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13487400" y="13559574"/>
-          <a:ext cx="797169" cy="15750"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>181708</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>84</xdr:col>
-      <xdr:colOff>6626</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>140678</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="333" name="コネクタ: カギ線 332">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF7FBC2-71C0-4A6D-8A90-F80183AEA42D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="315" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10029092" y="8194431"/>
-          <a:ext cx="4256242" cy="2667001"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>41032</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>164123</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>41031</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>52754</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="フローチャート: 複数書類 100">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F77F8C1-4032-457A-A49E-4E4E6A4C3EE2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1400909" y="1987061"/>
-          <a:ext cx="2039814" cy="1242647"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMultidocument">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>このクラスで必要な機能は以下のとおりである</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(menu</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>メソッドの機能</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="800" b="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mj-ea"/>
-            <a:ea typeface="+mj-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・メインメニューを表示させ、</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="800" b="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mj-ea"/>
-            <a:ea typeface="+mj-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>・機能番号を入力させる。その番号により、該当機能を実行する。</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="800" b="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mj-ea"/>
-            <a:ea typeface="+mj-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mj-ea"/>
-            <a:ea typeface="+mj-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>69173</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>5694</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>128954</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>11723</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="107" name="直線矢印コネクタ 106">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A7E8E4-DDB8-4519-8C97-D1BC0ADD284F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="101" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2278973" y="3182648"/>
-          <a:ext cx="1419658" cy="779752"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>82061</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>140676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>93785</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>23445</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="角丸四角形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2C91DE4-FBDB-45E2-9A5B-F16D69B0705F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11301046" y="12795738"/>
-          <a:ext cx="1541585" cy="269630"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="15875" cmpd="thinThick">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>「本当に削除しますか」</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>2931</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>23445</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>2931</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>52754</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="111" name="直線コネクタ 110">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE9D550F-AC1C-4E56-8533-13CEC0BF3441}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="108" idx="2"/>
-          <a:endCxn id="293" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12071839" y="13065368"/>
-          <a:ext cx="0" cy="222740"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>52753</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>29308</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>95312</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>187569</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="角丸四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA61B28C-AAA6-407E-9124-22D08937BEDE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9231922" y="9589477"/>
-          <a:ext cx="1572421" cy="351692"/>
+          <a:off x="1986476" y="9186202"/>
+          <a:ext cx="1442294" cy="345831"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7697,7 +5970,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -7723,23 +5996,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>134816</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>87923</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>7391</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>52753</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>122009</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>93179</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>79433</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>73168</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="角丸四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F79CE08-C6BD-4572-A16E-7D6135BFE18C}"/>
+        <xdr:cNvPr id="152" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8470656D-B106-4D89-A3EE-6933A04AA390}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7747,14 +6020,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4894385" y="12162692"/>
-          <a:ext cx="1572421" cy="351692"/>
+          <a:off x="6921394" y="10620502"/>
+          <a:ext cx="1657270" cy="1140574"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6">
+          <a:schemeClr val="tx2">
             <a:lumMod val="40000"/>
             <a:lumOff val="60000"/>
           </a:schemeClr>
@@ -7783,7 +6056,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -7800,7 +6073,70 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>サブメニューに戻る</a:t>
+            <a:t>・会員</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・名　前</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・住　所</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　・電話番号</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7809,23 +6145,77 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>58616</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>87922</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>159790</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>52753</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>100721</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>73168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>126487</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>163919</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="198" name="直線コネクタ 197">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277C9811-3F68-4B1C-A9ED-BF5FA6B6158E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="152" idx="2"/>
+          <a:endCxn id="237" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8985641" y="11594608"/>
+          <a:ext cx="25766" cy="471751"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>78451</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>119182</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="角丸四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EAFC3F5-3215-42D2-B5E6-3C2AB18FA28D}"/>
+        <xdr:cNvPr id="218" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51412F8B-29FD-4D5C-A542-E67BD64EC59B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7833,16 +6223,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1928447" y="10034953"/>
-          <a:ext cx="1461051" cy="351692"/>
+          <a:off x="11833411" y="10766612"/>
+          <a:ext cx="1019746" cy="361229"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln w="12700" cmpd="thinThick">
@@ -7869,7 +6258,90 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・読み込み</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>105346</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>119181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="221" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53163D2F-38D4-4844-86F1-072C8BAAFD20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10668000" y="10766611"/>
+          <a:ext cx="1019746" cy="361229"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFE699"/>
+        </a:solidFill>
+        <a:ln w="12700" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
@@ -7886,11 +6358,2017 @@
               <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>サブメニューに戻る</a:t>
+            <a:t>・終了</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>13331</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>17107</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>172743</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="225" name="コネクタ: カギ線 224">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B25F72-BD26-480D-BD2E-CA41B2EC43EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="109" idx="0"/>
+          <a:endCxn id="103" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="7607902" y="5744239"/>
+          <a:ext cx="2416833" cy="4530056"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>79567</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>119182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>86471</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>87183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="234" name="直線コネクタ 233">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BAF812-4C60-4AA7-91F7-E6D22F2607E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="218" idx="2"/>
+          <a:endCxn id="238" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13490767" y="11259622"/>
+          <a:ext cx="6904" cy="920501"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>87183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>96741</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>15952</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="238" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{695AD39A-EA9B-4CE0-B9ED-08C3A370D98C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12481560" y="12180123"/>
+          <a:ext cx="2032221" cy="881269"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>テーブル内のデータを更新し、データグリッドビューに表示する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>41775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>168615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>106463</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="246" name="コネクタ: カギ線 245">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CBBE74D-8FDD-4A2D-A4F9-B3225C455731}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="221" idx="0"/>
+          <a:endCxn id="49" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="4656565" y="4770712"/>
+          <a:ext cx="8228585" cy="4205992"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>183047</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>79566</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="コネクタ: カギ線 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A5BDDCB-EB43-4040-9083-B46D38D80F6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="223" idx="3"/>
+          <a:endCxn id="218" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8223637" y="10075795"/>
+          <a:ext cx="3782886" cy="912206"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>4355</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>8620</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>122865</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="148" name="直線矢印コネクタ 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B059E4AB-4C14-4E3E-9C89-01F0FFB120FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9683932" y="10040983"/>
+          <a:ext cx="4265" cy="897928"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>7071</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>147722</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="直線矢印コネクタ 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB7F32FB-C604-424B-B1AB-DC31065476C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10668000" y="10006013"/>
+          <a:ext cx="7071" cy="904959"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>16018</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>34745</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>122865</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="157" name="直線矢印コネクタ 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{523B01ED-599B-4B32-B0A5-BA8902E1BA4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="241" idx="0"/>
+          <a:endCxn id="109" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9865412" y="9617672"/>
+          <a:ext cx="18727" cy="1321239"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>78828</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>5255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>150669</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>23290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="160" name="直線コネクタ 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{149C6B19-ACBF-4751-B0DB-8F7FD279F753}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="265" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13532069" y="9937531"/>
+          <a:ext cx="1585331" cy="18035"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>14686</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>178627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>48276</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>16563</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="184" name="コネクタ: カギ線 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A56A3B-EF5E-4DFB-B9E1-7724350BF8C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="90" idx="3"/>
+          <a:endCxn id="212" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5714446" y="8080567"/>
+          <a:ext cx="8583230" cy="599936"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>140677</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>157089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>18384</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>33997</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="191" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2BC62B4-96C3-4791-AB3D-7E3AE816BA54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15228277" y="11297529"/>
+          <a:ext cx="883547" cy="448408"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・会員</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>25514</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>65557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>150578</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>41302</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="228" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73082C0A-CBB2-43DD-B63A-775BAF4462E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5920988" y="10549073"/>
+          <a:ext cx="1641043" cy="1130776"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・会員</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・名　前</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・住　所</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　・電話番号</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>111368</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>17584</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>14018</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="229" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D15CA07-3102-4DA0-A6C5-0D8869B6B1A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10310445" y="8622323"/>
+          <a:ext cx="1606062" cy="371572"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFE699"/>
+        </a:solidFill>
+        <a:ln w="12700" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>終了画面に遷移する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>165040</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>102721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>165266</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>10143</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="239" name="直線コネクタ 238">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4CFC1E-3BE5-43A3-8F92-19828F2483EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="87" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6734282" y="9046195"/>
+          <a:ext cx="226" cy="292432"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>166904</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>64134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7118</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>60340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="266" name="直線コネクタ 265">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6DE16D2-81DE-421D-A01A-0C655C13324F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="67" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1186812" y="9817734"/>
+          <a:ext cx="10198" cy="383068"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>20514</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25135</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="294" name="直線コネクタ 293">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CABE8638-653E-4709-978D-93195085C350}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="72" idx="2"/>
+          <a:endCxn id="303" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1193994" y="11620500"/>
+          <a:ext cx="4621" cy="560363"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5860</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>35168</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="303" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF67AE9-037C-4502-92F5-D497AF2CA9B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="173500" y="12180863"/>
+          <a:ext cx="2040988" cy="651217"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>会員情報を入力、登録すると、会員</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>が自動で割り振られる。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>35859</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>122865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>33629</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="326" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E40E6B-0C6B-440D-83EB-D1CBBDB32C14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10597179" y="10882305"/>
+          <a:ext cx="1003610" cy="365711"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>78451</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>119182</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="327" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C02EB20-E49B-4F21-8E69-DC6C2C3871F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12988962" y="10893911"/>
+          <a:ext cx="1003609" cy="365711"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・読み込み</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>105346</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>119181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="328" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF3FF43-8027-43BA-8171-220345315EEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11842376" y="10893910"/>
+          <a:ext cx="1003610" cy="365711"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFE699"/>
+        </a:solidFill>
+        <a:ln w="12700" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4355</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>8620</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>122865</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="329" name="直線矢印コネクタ 328">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCBE996B-9980-4399-B05A-E4A575D2F9DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10900955" y="9989820"/>
+          <a:ext cx="4265" cy="892485"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>7071</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>147722</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="331" name="直線矢印コネクタ 330">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C5E65E-6B5E-4B14-905E-5228CD96B09E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12070080" y="10002203"/>
+          <a:ext cx="7071" cy="904959"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>25383</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>106093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>34744</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>122865</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="332" name="直線矢印コネクタ 331">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{397C2DFA-822A-41C1-9696-02E8234AD36E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="326" idx="0"/>
+          <a:endCxn id="113" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2707623" y="9532033"/>
+          <a:ext cx="9361" cy="1540772"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>25382</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>41911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>7467</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>141263</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="350" name="コネクタ: カギ線 349">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C37FF24-D63E-41B3-9BA6-AC823061639A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="113" idx="0"/>
+          <a:endCxn id="103" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="2679469" y="6829004"/>
+          <a:ext cx="2385352" cy="2329045"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>87183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>96741</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>15952</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="354" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74675488-DA5C-4CD2-979C-7EA44390A18E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12481560" y="12180123"/>
+          <a:ext cx="2032221" cy="881269"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cmpd="thinThick">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>テーブル内のデータを更新し、データグリッドビューに表示する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>79567</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>119182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>86471</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>87183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="355" name="直線コネクタ 354">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA08B7DA-3DB2-4E13-82FE-16FEA9D0037C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="327" idx="2"/>
+          <a:endCxn id="354" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5108767" y="11450122"/>
+          <a:ext cx="6904" cy="1682501"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>94229</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>3879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>79567</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="369" name="コネクタ: カギ線 368">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D965C1-233E-4A1E-AA9D-812A319A2245}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="67" idx="3"/>
+          <a:endCxn id="327" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1770629" y="10191819"/>
+          <a:ext cx="3338138" cy="892592"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>106461</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>119181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>106461</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>119181</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="377" name="コネクタ: カギ線 376">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{938D3FD2-2C6B-4776-9159-5BEC6A8B6907}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="328" idx="2"/>
+          <a:endCxn id="221" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="8057931" y="7163871"/>
+          <a:ext cx="190500" cy="8382000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1468000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>84221</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>161682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>86606</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>8020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="381" name="コネクタ: カギ線 380">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5B52A87-8F12-45E3-8811-0A3720233728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="88" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5137484" y="10067682"/>
+          <a:ext cx="1013038" cy="231349"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>96279</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>84690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>165266</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>164894</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="386" name="コネクタ: カギ線 385">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE3249C3-9FC3-45BE-9DB5-57DF80762F69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="90" idx="2"/>
+          <a:endCxn id="87" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6142555" y="8131404"/>
+          <a:ext cx="272709" cy="911197"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8223,10 +8701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CB72"/>
+  <dimension ref="A1:DJ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AH42" sqref="AH42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -8234,151 +8712,151 @@
     <col min="1" max="16384" width="2.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="18.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:114" ht="18.75" customHeight="1">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="22" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="27" t="s">
-        <v>13</v>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="26" t="s">
+        <v>8</v>
       </c>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="23" t="s">
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="25" t="s">
-        <v>16</v>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="24" t="s">
+        <v>11</v>
       </c>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="24" t="s">
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="25" t="s">
-        <v>15</v>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="23"/>
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="23"/>
+      <c r="BA1" s="24" t="s">
+        <v>10</v>
       </c>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="25"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="24"/>
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="24"/>
+      <c r="BF1" s="24"/>
     </row>
-    <row r="2" spans="1:67" ht="18.75" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="22" t="s">
+    <row r="2" spans="1:114" ht="18.75" customHeight="1">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="27" t="s">
-        <v>14</v>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="26" t="s">
+        <v>9</v>
       </c>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="24" t="s">
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="30">
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="29">
         <v>44847</v>
       </c>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="24" t="s">
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="24"/>
-      <c r="AY2" s="24"/>
-      <c r="AZ2" s="24"/>
-      <c r="BA2" s="26"/>
-      <c r="BB2" s="26"/>
-      <c r="BC2" s="26"/>
-      <c r="BD2" s="26"/>
-      <c r="BE2" s="26"/>
-      <c r="BF2" s="26"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="23"/>
+      <c r="AY2" s="23"/>
+      <c r="AZ2" s="23"/>
+      <c r="BA2" s="25"/>
+      <c r="BB2" s="25"/>
+      <c r="BC2" s="25"/>
+      <c r="BD2" s="25"/>
+      <c r="BE2" s="25"/>
+      <c r="BF2" s="25"/>
     </row>
-    <row r="3" spans="1:67" ht="15" customHeight="1">
+    <row r="3" spans="1:114" ht="15" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8397,37 +8875,26 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="9" spans="1:67" ht="15" customHeight="1">
-      <c r="K9" s="2" t="s">
-        <v>12</v>
-      </c>
+    <row r="9" spans="1:114" ht="15" customHeight="1">
+      <c r="S9" s="2"/>
     </row>
-    <row r="11" spans="1:67" ht="15" customHeight="1">
-      <c r="BA11" s="7"/>
-      <c r="BB11" s="7"/>
-      <c r="BC11" s="7"/>
-      <c r="BD11" s="7"/>
-      <c r="BE11" s="7"/>
-      <c r="BF11" s="7"/>
-      <c r="BG11" s="7"/>
-      <c r="BH11" s="7"/>
-      <c r="BI11" s="7"/>
-      <c r="BJ11" s="7"/>
-      <c r="BK11" s="7"/>
-      <c r="BL11" s="7"/>
-      <c r="BM11" s="7"/>
-      <c r="BN11" s="7"/>
-      <c r="BO11" s="7"/>
+    <row r="11" spans="1:114" ht="15" customHeight="1" thickBot="1">
+      <c r="CT11" s="7"/>
+      <c r="CU11" s="7"/>
+      <c r="CV11" s="7"/>
+      <c r="CW11" s="7"/>
+      <c r="CX11" s="7"/>
+      <c r="CY11" s="7"/>
+      <c r="CZ11" s="7"/>
+      <c r="DA11" s="7"/>
+      <c r="DB11" s="7"/>
+      <c r="DC11" s="7"/>
+      <c r="DD11" s="7"/>
+      <c r="DE11" s="7"/>
+      <c r="DF11" s="7"/>
+      <c r="DG11" s="7"/>
     </row>
-    <row r="12" spans="1:67" ht="15" customHeight="1">
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+    <row r="12" spans="1:114" ht="15" customHeight="1">
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -8437,35 +8904,37 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="AY12" s="7"/>
-      <c r="AZ12" s="8"/>
-      <c r="BA12" s="16" t="s">
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="CR12" s="7"/>
+      <c r="CS12" s="31"/>
+      <c r="CT12" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="BB12" s="9"/>
-      <c r="BC12" s="9"/>
-      <c r="BD12" s="9"/>
-      <c r="BE12" s="9"/>
-      <c r="BF12" s="9"/>
-      <c r="BG12" s="9"/>
-      <c r="BH12" s="9"/>
-      <c r="BI12" s="9"/>
-      <c r="BJ12" s="9"/>
-      <c r="BK12" s="9"/>
-      <c r="BL12" s="9"/>
-      <c r="BM12" s="9"/>
-      <c r="BN12" s="9"/>
-      <c r="BO12" s="10"/>
+      <c r="CU12" s="33"/>
+      <c r="CV12" s="33"/>
+      <c r="CW12" s="33"/>
+      <c r="CX12" s="33"/>
+      <c r="CY12" s="33"/>
+      <c r="CZ12" s="33"/>
+      <c r="DA12" s="33"/>
+      <c r="DB12" s="33"/>
+      <c r="DC12" s="33"/>
+      <c r="DD12" s="33"/>
+      <c r="DE12" s="33"/>
+      <c r="DF12" s="33"/>
+      <c r="DG12" s="33"/>
+      <c r="DH12" s="33"/>
+      <c r="DI12" s="33"/>
+      <c r="DJ12" s="34"/>
     </row>
-    <row r="13" spans="1:67" ht="15" customHeight="1">
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+    <row r="13" spans="1:114" ht="15" customHeight="1">
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -8475,97 +8944,103 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="AY13" s="7"/>
-      <c r="AZ13" s="11"/>
-      <c r="BA13" s="7"/>
-      <c r="BB13" s="7"/>
-      <c r="BC13" s="7"/>
-      <c r="BD13" s="7"/>
-      <c r="BE13" s="7"/>
-      <c r="BF13" s="7"/>
-      <c r="BG13" s="7"/>
-      <c r="BH13" s="7"/>
-      <c r="BI13" s="7"/>
-      <c r="BJ13" s="7"/>
-      <c r="BK13" s="7"/>
-      <c r="BL13" s="7"/>
-      <c r="BM13" s="7"/>
-      <c r="BN13" s="7"/>
-      <c r="BO13" s="12"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="CR13" s="7"/>
+      <c r="CS13" s="35"/>
+      <c r="CT13" s="7"/>
+      <c r="CU13" s="7"/>
+      <c r="CV13" s="7"/>
+      <c r="CW13" s="7"/>
+      <c r="CX13" s="7"/>
+      <c r="CY13" s="7"/>
+      <c r="CZ13" s="7"/>
+      <c r="DA13" s="7"/>
+      <c r="DB13" s="7"/>
+      <c r="DC13" s="7"/>
+      <c r="DD13" s="7"/>
+      <c r="DE13" s="7"/>
+      <c r="DF13" s="7"/>
+      <c r="DG13" s="7"/>
+      <c r="DH13" s="7"/>
+      <c r="DI13" s="7"/>
+      <c r="DJ13" s="36"/>
     </row>
-    <row r="14" spans="1:67" ht="15" customHeight="1">
-      <c r="E14" s="2"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+    <row r="14" spans="1:114" ht="15" customHeight="1">
+      <c r="M14" s="2"/>
       <c r="O14" s="3"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="2"/>
-      <c r="AY14" s="7"/>
-      <c r="AZ14" s="11"/>
-      <c r="BA14" s="7"/>
-      <c r="BB14" s="7"/>
-      <c r="BC14" s="7"/>
-      <c r="BD14" s="7"/>
-      <c r="BE14" s="7"/>
-      <c r="BF14" s="7"/>
-      <c r="BG14" s="7"/>
-      <c r="BH14" s="7"/>
-      <c r="BI14" s="7"/>
-      <c r="BJ14" s="7"/>
-      <c r="BK14" s="7"/>
-      <c r="BL14" s="7"/>
-      <c r="BM14" s="7"/>
-      <c r="BN14" s="7"/>
-      <c r="BO14" s="12"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="2"/>
+      <c r="CR14" s="7"/>
+      <c r="CS14" s="35"/>
+      <c r="CT14" s="7"/>
+      <c r="CU14" s="7"/>
+      <c r="CV14" s="7"/>
+      <c r="CW14" s="7"/>
+      <c r="CX14" s="7"/>
+      <c r="CY14" s="7"/>
+      <c r="CZ14" s="7"/>
+      <c r="DA14" s="7"/>
+      <c r="DB14" s="7"/>
+      <c r="DC14" s="7"/>
+      <c r="DD14" s="7"/>
+      <c r="DE14" s="7"/>
+      <c r="DF14" s="7"/>
+      <c r="DG14" s="7"/>
+      <c r="DH14" s="7"/>
+      <c r="DI14" s="7"/>
+      <c r="DJ14" s="36"/>
     </row>
-    <row r="15" spans="1:67" ht="15" customHeight="1">
-      <c r="E15" s="2"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+    <row r="15" spans="1:114" ht="15" customHeight="1">
+      <c r="M15" s="2"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
-      <c r="R15" s="5"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="2"/>
-      <c r="AY15" s="7"/>
-      <c r="AZ15" s="11"/>
-      <c r="BA15" s="7"/>
-      <c r="BB15" s="7"/>
-      <c r="BC15" s="7"/>
-      <c r="BD15" s="7"/>
-      <c r="BE15" s="7"/>
-      <c r="BF15" s="7"/>
-      <c r="BG15" s="7"/>
-      <c r="BH15" s="7"/>
-      <c r="BI15" s="7"/>
-      <c r="BJ15" s="7"/>
-      <c r="BK15" s="7"/>
-      <c r="BL15" s="7"/>
-      <c r="BM15" s="7"/>
-      <c r="BN15" s="7"/>
-      <c r="BO15" s="12"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Z15" s="5"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="2"/>
+      <c r="CR15" s="7"/>
+      <c r="CS15" s="35"/>
+      <c r="CT15" s="7"/>
+      <c r="CU15" s="7"/>
+      <c r="CV15" s="7"/>
+      <c r="CW15" s="7"/>
+      <c r="CX15" s="7"/>
+      <c r="CY15" s="7"/>
+      <c r="CZ15" s="7"/>
+      <c r="DA15" s="7"/>
+      <c r="DB15" s="7"/>
+      <c r="DC15" s="7"/>
+      <c r="DD15" s="7"/>
+      <c r="DE15" s="7"/>
+      <c r="DF15" s="7"/>
+      <c r="DG15" s="7"/>
+      <c r="DH15" s="7"/>
+      <c r="DI15" s="7"/>
+      <c r="DJ15" s="36"/>
     </row>
-    <row r="16" spans="1:67" ht="15" customHeight="1">
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+    <row r="16" spans="1:114" ht="15" customHeight="1">
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -8575,33 +9050,35 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-      <c r="AY16" s="7"/>
-      <c r="AZ16" s="11"/>
-      <c r="BA16" s="7"/>
-      <c r="BB16" s="7"/>
-      <c r="BC16" s="7"/>
-      <c r="BD16" s="7"/>
-      <c r="BE16" s="7"/>
-      <c r="BF16" s="7"/>
-      <c r="BG16" s="7"/>
-      <c r="BH16" s="7"/>
-      <c r="BI16" s="7"/>
-      <c r="BJ16" s="7"/>
-      <c r="BK16" s="7"/>
-      <c r="BL16" s="7"/>
-      <c r="BM16" s="7"/>
-      <c r="BN16" s="7"/>
-      <c r="BO16" s="12"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="CR16" s="7"/>
+      <c r="CS16" s="35"/>
+      <c r="CT16" s="7"/>
+      <c r="CU16" s="7"/>
+      <c r="CV16" s="7"/>
+      <c r="CW16" s="7"/>
+      <c r="CX16" s="7"/>
+      <c r="CY16" s="7"/>
+      <c r="CZ16" s="7"/>
+      <c r="DA16" s="7"/>
+      <c r="DB16" s="7"/>
+      <c r="DC16" s="7"/>
+      <c r="DD16" s="7"/>
+      <c r="DE16" s="7"/>
+      <c r="DF16" s="7"/>
+      <c r="DG16" s="7"/>
+      <c r="DH16" s="7"/>
+      <c r="DI16" s="7"/>
+      <c r="DJ16" s="36"/>
     </row>
-    <row r="17" spans="5:67" ht="15" customHeight="1">
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+    <row r="17" spans="13:114" ht="15" customHeight="1">
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -8611,104 +9088,110 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="AY17" s="7"/>
-      <c r="AZ17" s="11"/>
-      <c r="BA17" s="7"/>
-      <c r="BB17" s="7"/>
-      <c r="BC17" s="7"/>
-      <c r="BD17" s="7"/>
-      <c r="BE17" s="7"/>
-      <c r="BF17" s="7"/>
-      <c r="BG17" s="7"/>
-      <c r="BH17" s="7"/>
-      <c r="BI17" s="7"/>
-      <c r="BJ17" s="7"/>
-      <c r="BK17" s="7"/>
-      <c r="BL17" s="7"/>
-      <c r="BM17" s="7"/>
-      <c r="BN17" s="7"/>
-      <c r="BO17" s="12"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="CR17" s="7"/>
+      <c r="CS17" s="35"/>
+      <c r="CT17" s="7"/>
+      <c r="CU17" s="7"/>
+      <c r="CV17" s="7"/>
+      <c r="CW17" s="7"/>
+      <c r="CX17" s="7"/>
+      <c r="CY17" s="7"/>
+      <c r="CZ17" s="7"/>
+      <c r="DA17" s="7"/>
+      <c r="DB17" s="7"/>
+      <c r="DC17" s="7"/>
+      <c r="DD17" s="7"/>
+      <c r="DE17" s="7"/>
+      <c r="DF17" s="7"/>
+      <c r="DG17" s="7"/>
+      <c r="DH17" s="7"/>
+      <c r="DI17" s="7"/>
+      <c r="DJ17" s="36"/>
     </row>
-    <row r="18" spans="5:67" ht="15" customHeight="1">
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+    <row r="18" spans="13:114" ht="15" customHeight="1">
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="2"/>
+      <c r="Q18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="AY18" s="7"/>
-      <c r="AZ18" s="11"/>
-      <c r="BA18" s="7"/>
-      <c r="BB18" s="7"/>
-      <c r="BC18" s="7"/>
-      <c r="BD18" s="7"/>
-      <c r="BE18" s="7"/>
-      <c r="BF18" s="7"/>
-      <c r="BG18" s="7"/>
-      <c r="BH18" s="7"/>
-      <c r="BI18" s="7"/>
-      <c r="BJ18" s="7"/>
-      <c r="BK18" s="7"/>
-      <c r="BL18" s="7"/>
-      <c r="BM18" s="7"/>
-      <c r="BN18" s="7"/>
-      <c r="BO18" s="12"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="CR18" s="7"/>
+      <c r="CS18" s="35"/>
+      <c r="CT18" s="7"/>
+      <c r="CU18" s="7"/>
+      <c r="CV18" s="7"/>
+      <c r="CW18" s="7"/>
+      <c r="CX18" s="7"/>
+      <c r="CY18" s="7"/>
+      <c r="CZ18" s="7"/>
+      <c r="DA18" s="7"/>
+      <c r="DB18" s="7"/>
+      <c r="DC18" s="7"/>
+      <c r="DD18" s="7"/>
+      <c r="DE18" s="7"/>
+      <c r="DF18" s="7"/>
+      <c r="DG18" s="7"/>
+      <c r="DH18" s="7"/>
+      <c r="DI18" s="7"/>
+      <c r="DJ18" s="36"/>
     </row>
-    <row r="19" spans="5:67" ht="15" customHeight="1">
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+    <row r="19" spans="13:114" ht="15" customHeight="1">
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="R19" s="16"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="AY19" s="7"/>
-      <c r="AZ19" s="11"/>
-      <c r="BA19" s="7"/>
-      <c r="BB19" s="7"/>
-      <c r="BC19" s="7"/>
-      <c r="BD19" s="7"/>
-      <c r="BE19" s="7"/>
-      <c r="BF19" s="7"/>
-      <c r="BG19" s="7"/>
-      <c r="BH19" s="7"/>
-      <c r="BI19" s="7"/>
-      <c r="BJ19" s="7"/>
-      <c r="BK19" s="7"/>
-      <c r="BL19" s="7"/>
-      <c r="BM19" s="7"/>
-      <c r="BN19" s="7"/>
-      <c r="BO19" s="12"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="CR19" s="7"/>
+      <c r="CS19" s="35"/>
+      <c r="CT19" s="7"/>
+      <c r="CU19" s="7"/>
+      <c r="CV19" s="7"/>
+      <c r="CW19" s="7"/>
+      <c r="CX19" s="7"/>
+      <c r="CY19" s="7"/>
+      <c r="CZ19" s="7"/>
+      <c r="DA19" s="7"/>
+      <c r="DB19" s="7"/>
+      <c r="DC19" s="7"/>
+      <c r="DD19" s="7"/>
+      <c r="DE19" s="7"/>
+      <c r="DF19" s="7"/>
+      <c r="DG19" s="7"/>
+      <c r="DH19" s="7"/>
+      <c r="DI19" s="7"/>
+      <c r="DJ19" s="36"/>
     </row>
-    <row r="20" spans="5:67" ht="15" customHeight="1">
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+    <row r="20" spans="13:114" ht="15" customHeight="1">
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -8718,33 +9201,35 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-      <c r="AZ20" s="11"/>
-      <c r="BA20" s="7"/>
-      <c r="BB20" s="7"/>
-      <c r="BC20" s="7"/>
-      <c r="BD20" s="7"/>
-      <c r="BE20" s="7"/>
-      <c r="BF20" s="7"/>
-      <c r="BG20" s="7"/>
-      <c r="BH20" s="7"/>
-      <c r="BI20" s="7"/>
-      <c r="BJ20" s="7"/>
-      <c r="BK20" s="7"/>
-      <c r="BL20" s="7"/>
-      <c r="BM20" s="7"/>
-      <c r="BN20" s="7"/>
-      <c r="BO20" s="12"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="CS20" s="35"/>
+      <c r="CT20" s="7"/>
+      <c r="CU20" s="7"/>
+      <c r="CV20" s="7"/>
+      <c r="CW20" s="7"/>
+      <c r="CX20" s="7"/>
+      <c r="CY20" s="7"/>
+      <c r="CZ20" s="7"/>
+      <c r="DA20" s="7"/>
+      <c r="DB20" s="7"/>
+      <c r="DC20" s="7"/>
+      <c r="DD20" s="7"/>
+      <c r="DE20" s="7"/>
+      <c r="DF20" s="7"/>
+      <c r="DG20" s="7"/>
+      <c r="DH20" s="7"/>
+      <c r="DI20" s="7"/>
+      <c r="DJ20" s="36"/>
     </row>
-    <row r="21" spans="5:67" ht="15" customHeight="1">
-      <c r="E21" s="20"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+    <row r="21" spans="13:114" ht="15" customHeight="1">
+      <c r="M21" s="19"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -8753,32 +9238,34 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-      <c r="AZ21" s="11"/>
-      <c r="BA21" s="7"/>
-      <c r="BB21" s="7"/>
-      <c r="BC21" s="7"/>
-      <c r="BD21" s="7"/>
-      <c r="BE21" s="7"/>
-      <c r="BF21" s="7"/>
-      <c r="BG21" s="7"/>
-      <c r="BH21" s="7"/>
-      <c r="BI21" s="7"/>
-      <c r="BJ21" s="7"/>
-      <c r="BK21" s="7"/>
-      <c r="BL21" s="7"/>
-      <c r="BM21" s="7"/>
-      <c r="BN21" s="7"/>
-      <c r="BO21" s="12"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="CS21" s="35"/>
+      <c r="CT21" s="7"/>
+      <c r="CU21" s="7"/>
+      <c r="CV21" s="7"/>
+      <c r="CW21" s="7"/>
+      <c r="CX21" s="7"/>
+      <c r="CY21" s="7"/>
+      <c r="CZ21" s="7"/>
+      <c r="DA21" s="7"/>
+      <c r="DB21" s="7"/>
+      <c r="DC21" s="7"/>
+      <c r="DD21" s="7"/>
+      <c r="DE21" s="7"/>
+      <c r="DF21" s="7"/>
+      <c r="DG21" s="7"/>
+      <c r="DH21" s="7"/>
+      <c r="DI21" s="7"/>
+      <c r="DJ21" s="36"/>
     </row>
-    <row r="22" spans="5:67" ht="15" customHeight="1">
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+    <row r="22" spans="13:114" ht="15" customHeight="1">
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -8788,32 +9275,34 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-      <c r="AZ22" s="11"/>
-      <c r="BA22" s="7"/>
-      <c r="BB22" s="7"/>
-      <c r="BC22" s="7"/>
-      <c r="BD22" s="7"/>
-      <c r="BE22" s="7"/>
-      <c r="BF22" s="7"/>
-      <c r="BG22" s="7"/>
-      <c r="BH22" s="7"/>
-      <c r="BI22" s="7"/>
-      <c r="BJ22" s="7"/>
-      <c r="BK22" s="7"/>
-      <c r="BL22" s="7"/>
-      <c r="BM22" s="7"/>
-      <c r="BN22" s="7"/>
-      <c r="BO22" s="12"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="CS22" s="35"/>
+      <c r="CT22" s="7"/>
+      <c r="CU22" s="7"/>
+      <c r="CV22" s="7"/>
+      <c r="CW22" s="7"/>
+      <c r="CX22" s="7"/>
+      <c r="CY22" s="7"/>
+      <c r="CZ22" s="7"/>
+      <c r="DA22" s="7"/>
+      <c r="DB22" s="7"/>
+      <c r="DC22" s="7"/>
+      <c r="DD22" s="7"/>
+      <c r="DE22" s="7"/>
+      <c r="DF22" s="7"/>
+      <c r="DG22" s="7"/>
+      <c r="DH22" s="7"/>
+      <c r="DI22" s="7"/>
+      <c r="DJ22" s="36"/>
     </row>
-    <row r="23" spans="5:67" ht="15" customHeight="1">
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+    <row r="23" spans="13:114" ht="15" customHeight="1">
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -8823,76 +9312,82 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-      <c r="AZ23" s="11"/>
-      <c r="BA23" s="7"/>
-      <c r="BB23" s="7"/>
-      <c r="BC23" s="7"/>
-      <c r="BD23" s="7"/>
-      <c r="BE23" s="7"/>
-      <c r="BF23" s="7"/>
-      <c r="BG23" s="7"/>
-      <c r="BH23" s="7"/>
-      <c r="BI23" s="7"/>
-      <c r="BJ23" s="7"/>
-      <c r="BK23" s="7"/>
-      <c r="BL23" s="7"/>
-      <c r="BM23" s="7"/>
-      <c r="BN23" s="7"/>
-      <c r="BO23" s="12"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="CS23" s="35"/>
+      <c r="CT23" s="7"/>
+      <c r="CU23" s="7"/>
+      <c r="CV23" s="7"/>
+      <c r="CW23" s="7"/>
+      <c r="CX23" s="7"/>
+      <c r="CY23" s="7"/>
+      <c r="CZ23" s="7"/>
+      <c r="DA23" s="7"/>
+      <c r="DB23" s="7"/>
+      <c r="DC23" s="7"/>
+      <c r="DD23" s="7"/>
+      <c r="DE23" s="7"/>
+      <c r="DF23" s="7"/>
+      <c r="DG23" s="7"/>
+      <c r="DH23" s="7"/>
+      <c r="DI23" s="7"/>
+      <c r="DJ23" s="36"/>
     </row>
-    <row r="24" spans="5:67" ht="15" customHeight="1">
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="AZ24" s="11"/>
-      <c r="BA24" s="7"/>
-      <c r="BB24" s="7"/>
-      <c r="BC24" s="7"/>
-      <c r="BD24" s="7"/>
-      <c r="BE24" s="7"/>
-      <c r="BF24" s="7"/>
-      <c r="BG24" s="7"/>
-      <c r="BH24" s="7"/>
-      <c r="BI24" s="7"/>
-      <c r="BJ24" s="7"/>
-      <c r="BK24" s="7"/>
-      <c r="BL24" s="7"/>
-      <c r="BM24" s="7"/>
-      <c r="BN24" s="7"/>
-      <c r="BO24" s="12"/>
+    <row r="24" spans="13:114" ht="15" customHeight="1">
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="CS24" s="35"/>
+      <c r="CT24" s="7"/>
+      <c r="CU24" s="7"/>
+      <c r="CV24" s="7"/>
+      <c r="CW24" s="7"/>
+      <c r="CX24" s="7"/>
+      <c r="CY24" s="7"/>
+      <c r="CZ24" s="7"/>
+      <c r="DA24" s="7"/>
+      <c r="DB24" s="7"/>
+      <c r="DC24" s="7"/>
+      <c r="DD24" s="7"/>
+      <c r="DE24" s="7"/>
+      <c r="DF24" s="7"/>
+      <c r="DG24" s="7"/>
+      <c r="DH24" s="7"/>
+      <c r="DI24" s="7"/>
+      <c r="DJ24" s="36"/>
     </row>
-    <row r="25" spans="5:67" ht="15" customHeight="1">
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="AZ25" s="13"/>
-      <c r="BA25" s="14"/>
-      <c r="BB25" s="14"/>
-      <c r="BC25" s="14"/>
-      <c r="BD25" s="14"/>
-      <c r="BE25" s="14"/>
-      <c r="BF25" s="14"/>
-      <c r="BG25" s="14"/>
-      <c r="BH25" s="14"/>
-      <c r="BI25" s="14"/>
-      <c r="BJ25" s="14"/>
-      <c r="BK25" s="14"/>
-      <c r="BL25" s="14"/>
-      <c r="BM25" s="14"/>
-      <c r="BN25" s="14"/>
-      <c r="BO25" s="15"/>
+    <row r="25" spans="13:114" ht="15" customHeight="1" thickBot="1">
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="CS25" s="37"/>
+      <c r="CT25" s="38"/>
+      <c r="CU25" s="38"/>
+      <c r="CV25" s="38"/>
+      <c r="CW25" s="38"/>
+      <c r="CX25" s="38"/>
+      <c r="CY25" s="38"/>
+      <c r="CZ25" s="38"/>
+      <c r="DA25" s="38"/>
+      <c r="DB25" s="38"/>
+      <c r="DC25" s="38"/>
+      <c r="DD25" s="38"/>
+      <c r="DE25" s="38"/>
+      <c r="DF25" s="38"/>
+      <c r="DG25" s="38"/>
+      <c r="DH25" s="38"/>
+      <c r="DI25" s="38"/>
+      <c r="DJ25" s="39"/>
     </row>
-    <row r="26" spans="5:67" ht="15" customHeight="1">
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+    <row r="26" spans="13:114" ht="15" customHeight="1">
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="5:67" ht="15" customHeight="1">
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+    <row r="27" spans="13:114" ht="15" customHeight="1">
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -8902,16 +9397,16 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
     </row>
-    <row r="28" spans="5:67" ht="15" customHeight="1">
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+    <row r="28" spans="13:114" ht="15" customHeight="1">
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -8921,31 +9416,31 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-      <c r="AZ28" s="8"/>
-      <c r="BA28" s="9"/>
-      <c r="BB28" s="9"/>
-      <c r="BC28" s="9"/>
-      <c r="BD28" s="9"/>
-      <c r="BE28" s="9"/>
-      <c r="BF28" s="9"/>
-      <c r="BG28" s="9"/>
-      <c r="BH28" s="9"/>
-      <c r="BI28" s="9"/>
-      <c r="BJ28" s="9"/>
-      <c r="BK28" s="9"/>
-      <c r="BL28" s="9"/>
-      <c r="BM28" s="9"/>
-      <c r="BN28" s="10"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="CS28" s="8"/>
+      <c r="CT28" s="9"/>
+      <c r="CU28" s="9"/>
+      <c r="CV28" s="9"/>
+      <c r="CW28" s="9"/>
+      <c r="CX28" s="9"/>
+      <c r="CY28" s="9"/>
+      <c r="CZ28" s="9"/>
+      <c r="DA28" s="9"/>
+      <c r="DB28" s="9"/>
+      <c r="DC28" s="9"/>
+      <c r="DD28" s="9"/>
+      <c r="DE28" s="9"/>
+      <c r="DF28" s="9"/>
+      <c r="DG28" s="10"/>
     </row>
-    <row r="29" spans="5:67" ht="15" customHeight="1">
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+    <row r="29" spans="13:114" ht="15" customHeight="1">
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -8955,31 +9450,31 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
-      <c r="AZ29" s="11"/>
-      <c r="BA29" s="7"/>
-      <c r="BB29" s="7"/>
-      <c r="BC29" s="7"/>
-      <c r="BD29" s="7"/>
-      <c r="BE29" s="7"/>
-      <c r="BF29" s="7"/>
-      <c r="BG29" s="7"/>
-      <c r="BH29" s="7"/>
-      <c r="BI29" s="7"/>
-      <c r="BJ29" s="7"/>
-      <c r="BK29" s="7"/>
-      <c r="BL29" s="7"/>
-      <c r="BM29" s="7"/>
-      <c r="BN29" s="12"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="CS29" s="11"/>
+      <c r="CT29" s="7"/>
+      <c r="CU29" s="7"/>
+      <c r="CV29" s="7"/>
+      <c r="CW29" s="7"/>
+      <c r="CX29" s="7"/>
+      <c r="CY29" s="7"/>
+      <c r="CZ29" s="7"/>
+      <c r="DA29" s="7"/>
+      <c r="DB29" s="7"/>
+      <c r="DC29" s="7"/>
+      <c r="DD29" s="7"/>
+      <c r="DE29" s="7"/>
+      <c r="DF29" s="7"/>
+      <c r="DG29" s="12"/>
     </row>
-    <row r="30" spans="5:67" ht="15" customHeight="1">
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+    <row r="30" spans="13:114" ht="15" customHeight="1">
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -8989,33 +9484,33 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
-      <c r="AZ30" s="11"/>
-      <c r="BA30" s="7"/>
-      <c r="BB30" s="7"/>
-      <c r="BC30" s="7"/>
-      <c r="BD30" s="7"/>
-      <c r="BE30" s="7"/>
-      <c r="BF30" s="7"/>
-      <c r="BG30" s="7"/>
-      <c r="BH30" s="7"/>
-      <c r="BI30" s="7"/>
-      <c r="BJ30" s="7"/>
-      <c r="BK30" s="7"/>
-      <c r="BL30" s="7"/>
-      <c r="BM30" s="7"/>
-      <c r="BN30" s="12"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="CS30" s="11"/>
+      <c r="CT30" s="7"/>
+      <c r="CU30" s="7"/>
+      <c r="CV30" s="7"/>
+      <c r="CW30" s="7"/>
+      <c r="CX30" s="7"/>
+      <c r="CY30" s="7"/>
+      <c r="CZ30" s="7"/>
+      <c r="DA30" s="7"/>
+      <c r="DB30" s="7"/>
+      <c r="DC30" s="7"/>
+      <c r="DD30" s="7"/>
+      <c r="DE30" s="7"/>
+      <c r="DF30" s="7"/>
+      <c r="DG30" s="12"/>
     </row>
-    <row r="31" spans="5:67" ht="15" customHeight="1">
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+    <row r="31" spans="13:114" ht="15" customHeight="1">
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -9023,114 +9518,117 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
-      <c r="AZ31" s="11"/>
-      <c r="BA31" s="7"/>
-      <c r="BB31" s="7"/>
-      <c r="BC31" s="7"/>
-      <c r="BD31" s="7"/>
-      <c r="BE31" s="7"/>
-      <c r="BF31" s="7"/>
-      <c r="BG31" s="7"/>
-      <c r="BH31" s="7"/>
-      <c r="BI31" s="7"/>
-      <c r="BJ31" s="7"/>
-      <c r="BK31" s="7"/>
-      <c r="BL31" s="7"/>
-      <c r="BM31" s="7"/>
-      <c r="BN31" s="12"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="CS31" s="11"/>
+      <c r="CT31" s="7"/>
+      <c r="CU31" s="7"/>
+      <c r="CV31" s="7"/>
+      <c r="CW31" s="7"/>
+      <c r="CX31" s="7"/>
+      <c r="CY31" s="7"/>
+      <c r="CZ31" s="7"/>
+      <c r="DA31" s="7"/>
+      <c r="DB31" s="7"/>
+      <c r="DC31" s="7"/>
+      <c r="DD31" s="7"/>
+      <c r="DE31" s="7"/>
+      <c r="DF31" s="7"/>
+      <c r="DG31" s="12"/>
     </row>
-    <row r="32" spans="5:67" ht="15" customHeight="1">
-      <c r="AZ32" s="11"/>
-      <c r="BA32" s="7"/>
-      <c r="BB32" s="7"/>
-      <c r="BC32" s="7"/>
-      <c r="BD32" s="7"/>
-      <c r="BE32" s="7"/>
-      <c r="BF32" s="7"/>
-      <c r="BG32" s="7"/>
-      <c r="BH32" s="2"/>
-      <c r="BI32" s="2"/>
-      <c r="BJ32" s="2"/>
-      <c r="BK32" s="2"/>
-      <c r="BL32" s="2"/>
-      <c r="BM32" s="2"/>
-      <c r="BN32" s="19"/>
+    <row r="32" spans="13:114" ht="15" customHeight="1">
+      <c r="CS32" s="11"/>
+      <c r="CT32" s="7"/>
+      <c r="CU32" s="7"/>
+      <c r="CV32" s="7"/>
+      <c r="CW32" s="7"/>
+      <c r="CX32" s="7"/>
+      <c r="CY32" s="7"/>
+      <c r="CZ32" s="7"/>
+      <c r="DA32" s="2"/>
+      <c r="DB32" s="2"/>
+      <c r="DC32" s="2"/>
+      <c r="DD32" s="2"/>
+      <c r="DE32" s="2"/>
+      <c r="DF32" s="2"/>
+      <c r="DG32" s="18"/>
     </row>
-    <row r="33" spans="7:66" ht="15" customHeight="1">
-      <c r="AZ33" s="11"/>
-      <c r="BA33" s="7"/>
-      <c r="BB33" s="7"/>
-      <c r="BC33" s="7"/>
-      <c r="BD33" s="7"/>
-      <c r="BE33" s="7"/>
-      <c r="BF33" s="7"/>
-      <c r="BG33" s="7"/>
-      <c r="BH33" s="7"/>
-      <c r="BI33" s="7"/>
-      <c r="BJ33" s="7"/>
-      <c r="BK33" s="7"/>
-      <c r="BL33" s="7"/>
-      <c r="BM33" s="7"/>
-      <c r="BN33" s="12"/>
+    <row r="33" spans="15:111" ht="15" customHeight="1">
+      <c r="CS33" s="11"/>
+      <c r="CT33" s="7"/>
+      <c r="CU33" s="7"/>
+      <c r="CV33" s="7"/>
+      <c r="CW33" s="7"/>
+      <c r="CX33" s="7"/>
+      <c r="CY33" s="7"/>
+      <c r="CZ33" s="7"/>
+      <c r="DA33" s="7"/>
+      <c r="DB33" s="7"/>
+      <c r="DC33" s="7"/>
+      <c r="DD33" s="7"/>
+      <c r="DE33" s="7"/>
+      <c r="DF33" s="7"/>
+      <c r="DG33" s="12"/>
     </row>
-    <row r="34" spans="7:66" ht="15" customHeight="1">
-      <c r="AZ34" s="13"/>
-      <c r="BA34" s="14"/>
-      <c r="BB34" s="14"/>
-      <c r="BC34" s="14"/>
-      <c r="BD34" s="14"/>
-      <c r="BE34" s="14"/>
-      <c r="BF34" s="14"/>
-      <c r="BG34" s="14"/>
-      <c r="BH34" s="14"/>
-      <c r="BI34" s="14"/>
-      <c r="BJ34" s="14"/>
-      <c r="BK34" s="14"/>
-      <c r="BL34" s="14"/>
-      <c r="BM34" s="14"/>
-      <c r="BN34" s="15"/>
+    <row r="34" spans="15:111" ht="15" customHeight="1">
+      <c r="CS34" s="13"/>
+      <c r="CT34" s="14"/>
+      <c r="CU34" s="14"/>
+      <c r="CV34" s="14"/>
+      <c r="CW34" s="14"/>
+      <c r="CX34" s="14"/>
+      <c r="CY34" s="14"/>
+      <c r="CZ34" s="14"/>
+      <c r="DA34" s="14"/>
+      <c r="DB34" s="14"/>
+      <c r="DC34" s="14"/>
+      <c r="DD34" s="14"/>
+      <c r="DE34" s="14"/>
+      <c r="DF34" s="14"/>
+      <c r="DG34" s="15"/>
     </row>
-    <row r="37" spans="7:66" ht="15" customHeight="1">
-      <c r="AB37" s="7"/>
+    <row r="37" spans="15:111" ht="15" customHeight="1">
+      <c r="AJ37" s="7"/>
     </row>
-    <row r="38" spans="7:66" ht="15" customHeight="1">
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
+    <row r="38" spans="15:111" ht="15" customHeight="1">
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
     </row>
-    <row r="41" spans="7:66" ht="15" customHeight="1">
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+    <row r="41" spans="15:111" ht="15" customHeight="1">
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="7:66" ht="15" customHeight="1">
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+    <row r="42" spans="15:111" ht="15" customHeight="1">
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
     </row>
-    <row r="51" spans="10:77" ht="15" customHeight="1">
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+    <row r="43" spans="15:111" ht="15" customHeight="1">
+      <c r="BY43" s="30"/>
+    </row>
+    <row r="51" spans="10:70" ht="15" customHeight="1">
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-      <c r="AS51" s="7"/>
-      <c r="AT51" s="7"/>
-      <c r="AU51" s="7"/>
-      <c r="AV51" s="7"/>
-      <c r="AW51" s="7"/>
-      <c r="AX51" s="7"/>
-      <c r="AY51" s="7"/>
-      <c r="AZ51" s="7"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="2"/>
       <c r="BA51" s="7"/>
       <c r="BB51" s="7"/>
       <c r="BC51" s="7"/>
@@ -9141,61 +9639,27 @@
       <c r="BH51" s="7"/>
       <c r="BI51" s="7"/>
       <c r="BJ51" s="7"/>
+      <c r="BK51" s="7"/>
+      <c r="BL51" s="7"/>
+      <c r="BM51" s="7"/>
+      <c r="BN51" s="7"/>
+      <c r="BO51" s="7"/>
+      <c r="BP51" s="7"/>
+      <c r="BQ51" s="7"/>
+      <c r="BR51" s="7"/>
     </row>
-    <row r="52" spans="10:77" ht="15" customHeight="1">
+    <row r="52" spans="10:70" ht="15" customHeight="1">
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="7"/>
-      <c r="Y52" s="7"/>
-      <c r="Z52" s="7"/>
-      <c r="AA52" s="7"/>
-      <c r="AB52" s="7"/>
-    </row>
-    <row r="56" spans="10:77" ht="15" customHeight="1">
-      <c r="BY56" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="10:77" ht="15" customHeight="1">
-      <c r="AY57" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="10:77" ht="15" customHeight="1">
-      <c r="AE58" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="10:77" ht="15" customHeight="1">
-      <c r="BT59" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="10:77" ht="15" customHeight="1">
-      <c r="AV60" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="10:77" ht="15" customHeight="1">
-      <c r="Y61" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="73:80" ht="15" customHeight="1">
-      <c r="CB69" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="73:80" ht="15" customHeight="1">
-      <c r="BU72" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="13">
